--- a/result/crawling_from_tokopedia.xlsx
+++ b/result/crawling_from_tokopedia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,12 +453,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>l***k</t>
+          <t>Devara</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>mendarat dengan selamat, semoga awet dan bisa bertahan lama, pengiriman super cepat best deh</t>
+          <t>Aman, pengiriman cepat, seller ramah dan responsif, barang aman, dapet bonus case dan anti gores</t>
         </is>
       </c>
       <c r="C2" t="inlineStr"/>
@@ -466,12 +466,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Ary</t>
+          <t>R***a</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Barang sampai dengan selamat, ok bisa fast charging, namun ngga bisa maksimal dengan charger 67 watt bawaan Xiaomi, tapi worthedlah dengan harga segini, overall puas trims</t>
+          <t>Barang baru dengan kondisi bagus. Pengiriman dan pengemasan aman dengan sensor deskripsi produk. Garansi resmi dengan kode resmi indonesia</t>
         </is>
       </c>
       <c r="C3" t="inlineStr"/>
@@ -479,12 +479,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Muhammah</t>
+          <t>M***d</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Qualitas Barang : Berfungsi (Not Fast Charging) &amp; sesuai Harga. Pelayanan : Very Good. Pengiriman : Good. Over All It's OK.</t>
+          <t>tepat waktu dan ori sesuai imei lengkap dengan garansi</t>
         </is>
       </c>
       <c r="C4" t="inlineStr"/>
@@ -492,12 +492,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Cahya</t>
+          <t>kiraman</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>paket sudah saya terima , packing cukup rapih danpengirimannya juga cukup cepat , barangnya cukup bagus sesuai keinginan saya ,terimakasih banyak buat pelayanan toko seller dan juga buat jasa kirim ...</t>
+          <t>Barang original segel resmi .adminnya responsive banget mantep pokonya ga bakalan ngerasa rugi kalau belanja di toko ini semoga tetep se fast respon ini ya min</t>
         </is>
       </c>
       <c r="C5" t="inlineStr"/>
@@ -505,12 +505,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Tio</t>
+          <t>kevin</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Terimakasih. harga nya murah barang nya berkualitas. Kabel nya lentur dan build quality nya bagus sekali. sungguh sangat melebihi ekspektasi</t>
+          <t>ini terlalu mantapu ini terlalu mantapu ini terlalu mantapu ini terlalu mantapu ini terlalu mantapu ini terlalu mantapu ini terlalu mantapu ini terlalu mantapu ini terlalu mantapuini terlalu mantapu ini terlalu mantapu ini terlalu mantapu ini terlalu mantapu ini terlalu mantapu ini terlalu mantapuini terlalu mantapu ini terlalu mantapu ini terlalu mantapu ini terlalu mantapu ini terlalu mantapu ini terlalu mantapu ini terlalu mantapu ini terlalu mantapu ini terlalu mantapuini terlalu mantapu ini terlalu mantapu ini terlalu mantapu ini terlalu mantapu ini terlalu mantapu ini terlalu mantapu</t>
         </is>
       </c>
       <c r="C6" t="inlineStr"/>
@@ -518,12 +518,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Agung</t>
+          <t>J***n</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Seller komunikatif, pelayanan baik dan proses cepat. Kabel Type C berfungsi dgn baik.</t>
+          <t>Barang original pasti. Segel. Garansi. Kartu garansi tercantum dibelakang. Mantab si dapet pas rpomo juga. Thanks tokped! Pas beli lebi murah dibanding retail toko.</t>
         </is>
       </c>
       <c r="C7" t="inlineStr"/>
@@ -531,12 +531,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Andri</t>
+          <t>Arina</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>bagus bisa fast charging... di motor juga bisa pengisian lumayan cepat harga murah</t>
+          <t>pertama kali beli hape lewat aplikasi, Alhamdulillah puas hasilnya.. paket sampai dg selamat, barang masih bersegel dan berfungsi dg baik, kualitas juga bagus bahannya rigit di tangan harga terjangkau dan juga sampai dalam hitungan jam, seller pun ramah</t>
         </is>
       </c>
       <c r="C8" t="inlineStr"/>
@@ -544,12 +544,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Sasuwang</t>
+          <t>Mahardhikaa</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>respon penjual dan pengiriman cepat packing aman harga murah tapi original dan tidak murahan mantap</t>
+          <t>admin fast respon banget, sempet ragu dan agak bawel juga karna pengiriman sameday lama. overall bagus banget garansi resmi harga juga beda dari yg lain</t>
         </is>
       </c>
       <c r="C9" t="inlineStr"/>
@@ -557,12 +557,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>M***M</t>
+          <t>C***s</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>murah dapat diskon pluss bayar ga sampe 1000perak. berfungsi sangat baik. terdeteksi fast charging di samsung note 20 ultra saya.</t>
+          <t>barang masih segel, garansi resmi, berfungsi dgn baik, pengiriman (rekomendasi)cepat.. dapat promo</t>
         </is>
       </c>
       <c r="C10" t="inlineStr"/>
@@ -570,210 +570,15 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Katisha</t>
+          <t>K***s</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>kabel berfungsi baik puas dengan barangnya cukup panjang ok !</t>
+          <t>Barang cepet sampai, kualitas bagus, Original, pokoknya the best deh, sellernya cepet tanggep juga</t>
         </is>
       </c>
       <c r="C11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>A***y</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Kabel Data DGT100 DAP Type C 100cm Fast Charging 2.4A Sesuai pesanan</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>N***r</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Proses pembelian dan pengiriman barang sangat cepat, packing aman dan kualitas barang ok</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>D***r</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>barang berfungsi dgn.baik kualitas sip, cepat sampainya</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Asyari</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>semoga berfungsi dengan baik, bagus kabelnya</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Andie</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Barangnya OK, packing rapi dan aman, pegiriman cepat, recommend seller</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Rinto</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Harganya lumayan murah............... Kecepatan pengiriman sangat baik Produk original.................................</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Gerai</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>sesuai gambar dan deskripsi. sdh dicoba dan berfungsi</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Gerai</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Sesuai gambar dan deskripsi. sdh dicoba dan berfungsi</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Tomi</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>barang masih di segel, sesuai pesann, trimkasii</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Hendri</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>packing rapi, item sesuao deskripsi. seller fast respon. terima kasih</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Halimah</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>fast reaponse, barang sesuai deskripsi, mantab segala2nya deh, thx</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr"/>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>f***f</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>pesan 2 .. yg dtg cuma satu, kemasan bungkusnya rusak seperti d congkel... nyampe nya lama banget</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr"/>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Doni</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>penjual komunikative, cepat sampai, mdh2an bisa digunakan</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr"/>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Sur</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>Pengiriman melebihi estimasi waktu pengiriman, sangat lambat. Estimasi maksimal tanggal 27 Oktober, tapi datang tanggal 28 Oktober.</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr"/>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Feryanto</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>kabel data type c bisa dipakai awet muda</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/result/crawling_from_tokopedia.xlsx
+++ b/result/crawling_from_tokopedia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,12 +453,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Devara</t>
+          <t>D***a</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Aman, pengiriman cepat, seller ramah dan responsif, barang aman, dapet bonus case dan anti gores</t>
+          <t>cukup untuk yang mau game pakai sens rendah halus licin TPI kontrolnya masih dapat tebel</t>
         </is>
       </c>
       <c r="C2" t="inlineStr"/>
@@ -466,12 +466,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>R***a</t>
+          <t>a***n</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Barang baru dengan kondisi bagus. Pengiriman dan pengemasan aman dengan sensor deskripsi produk. Garansi resmi dengan kode resmi indonesia</t>
+          <t>ukuran pas, material yg cakep dan seperti mousepad pada umumnya dengan harga yang terjangkau bisa dibilang.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr"/>
@@ -479,12 +479,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>M***d</t>
+          <t>Aripin</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>tepat waktu dan ori sesuai imei lengkap dengan garansi</t>
+          <t>BARANG : Sesuai ekspektasi SELLER : Responsif COURIER : Tidak ada masalah</t>
         </is>
       </c>
       <c r="C4" t="inlineStr"/>
@@ -492,12 +492,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>kiraman</t>
+          <t>D***e</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Barang original segel resmi .adminnya responsive banget mantep pokonya ga bakalan ngerasa rugi kalau belanja di toko ini semoga tetep se fast respon ini ya min</t>
+          <t>sat set, psen kmren bsknya lgsg smpe dpn rumah. hasil gambar bagus, tidak tipis, anti slip jg ckup tebal jd ga suka geser, looks dan kualitas ckp oke. cmn di bbrp jaitan ada warna kaya luntur (koreksi klo salah) yg sy khawatir klo kringetan bkal ngrusak wrnanya. satu lg, isi paket saya ada smpah</t>
         </is>
       </c>
       <c r="C5" t="inlineStr"/>
@@ -505,12 +505,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>kevin</t>
+          <t>d****</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ini terlalu mantapu ini terlalu mantapu ini terlalu mantapu ini terlalu mantapu ini terlalu mantapu ini terlalu mantapu ini terlalu mantapu ini terlalu mantapu ini terlalu mantapuini terlalu mantapu ini terlalu mantapu ini terlalu mantapu ini terlalu mantapu ini terlalu mantapu ini terlalu mantapuini terlalu mantapu ini terlalu mantapu ini terlalu mantapu ini terlalu mantapu ini terlalu mantapu ini terlalu mantapu ini terlalu mantapu ini terlalu mantapu ini terlalu mantapuini terlalu mantapu ini terlalu mantapu ini terlalu mantapu ini terlalu mantapu ini terlalu mantapu ini terlalu mantapu</t>
+          <t>Mantep lah, ketebalan ok, ukuran sesuai, motif jernih,kalau buat peforma kayaknya sih ok (belum coba buat game)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr"/>
@@ -518,12 +518,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>J***n</t>
+          <t>Abie</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Barang original pasti. Segel. Garansi. Kartu garansi tercantum dibelakang. Mantab si dapet pas rpomo juga. Thanks tokped! Pas beli lebi murah dibanding retail toko.</t>
+          <t>Barang ok, bagus. Pengiriman cepat, recommended.</t>
         </is>
       </c>
       <c r="C7" t="inlineStr"/>
@@ -531,12 +531,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Arina</t>
+          <t>F***e</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pertama kali beli hape lewat aplikasi, Alhamdulillah puas hasilnya.. paket sampai dg selamat, barang masih bersegel dan berfungsi dg baik, kualitas juga bagus bahannya rigit di tangan harga terjangkau dan juga sampai dalam hitungan jam, seller pun ramah</t>
+          <t>Kualitas pengerjaan: BAGUS Bahan: BAGUS Perakitan: Bagus Barang sampai tapi yg sampai nya warna hitam bukan yg putih 🤦‍♂️</t>
         </is>
       </c>
       <c r="C8" t="inlineStr"/>
@@ -544,12 +544,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Mahardhikaa</t>
+          <t>M***h</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>admin fast respon banget, sempet ragu dan agak bawel juga karna pengiriman sameday lama. overall bagus banget garansi resmi harga juga beda dari yg lain</t>
+          <t>Mousepad nya sangat nyaman dipakai, bahannya halus dan cetakannya tajam. Mantap banget.. Makasih kak</t>
         </is>
       </c>
       <c r="C9" t="inlineStr"/>
@@ -557,12 +557,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>C***s</t>
+          <t>I***a</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>barang masih segel, garansi resmi, berfungsi dgn baik, pengiriman (rekomendasi)cepat.. dapat promo</t>
+          <t>Bahan dan barang nya bagus sebenarnya, tapi karena pengiriman agak lama, jadi kayak ada bekas lekukannya, dan ya jujur jujuran aja ya seperti di video packingnya cuman kardus, tapi dari kualitas barang nya bagus kok minusnya cuman itu aja</t>
         </is>
       </c>
       <c r="C10" t="inlineStr"/>
@@ -570,15 +570,210 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>K***s</t>
+          <t>T***h</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Barang cepet sampai, kualitas bagus, Original, pokoknya the best deh, sellernya cepet tanggep juga</t>
+          <t>Kualitas bagus buat harganya, motif juga bagus. tebel juga enak buat setup</t>
         </is>
       </c>
       <c r="C11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>irsyad</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>bagus banget plisss, bahannya ga keset (licin) dan tebel jahitannya juga rapih dan warnnya juga real sama kaya di foto produk, worth it !</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>R***w</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Bahan: Bagus responsif dan tidak cacat jahitan😍 Alhamdulillah barang sampai dengan selamat dan bagus. Minusnya disaya aja masih nabung buat rakit PC, bantu do'ain ya min supaya cepat kebeli PC nya 😇🤗</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>T***c</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Quality of work: BAGUS Material: Enak buat mouse</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Ida</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>ukuran sesuai, bahan dan material baik, cukup halus.. mouse meluncur dengan lancar diatasnya..</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Rey</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Proses cepat, bahan bagus, gak licin, sesuai harga, mantap</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>R***p</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Bahan berbau tajam (jadi pertimbangan), jahitan masih kurang rapi, selain itu motif, desain dan lainnya bagus... Sesuai harga</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>L***u</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Bahan adem, tebel, bagus gk licin dan gk terlalu keset juga, oke buat mousenya. Minus nya bahan bawah nya kurang keset, jadi suka geser deskmat nya. Minus juga pinggirannya melengkung, karena emg paketnya digulung, jdi pinggirannya susah buat lurus lagi, butuh waktu. Overall oke. Murah juga sih.</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Samet</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Kualitas Dari Mousepad sangat bagus Dan tebal. gambarnya rapi Dan jelas. Sangat recommend</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>N***p</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>overall dari bahan oke dan bagus, designnya juga keren tapi yang saya kecewain adalah saat saya teliti ada noda biru disekitar warna putih. itu saja keluhan saya.</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>K***y</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Bahan: Halus dan Tebal Barangnya bagus, halus, dan licin buat mouse, mantap deh.</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>R***a</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Kualitas nya mantap dan permukaan nya halus licin, serta anti slip</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Alice</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Lumayan nih gaes pas kena flash sale ga sampe 50rb. bahan lumayan baik, cukup rapih, tapi ya jangan bandingkan dengan yg diatas serratus ribuan ya, tapi ini bagus lah. proses cepat langsung dikitim, kurir juga sat set. lumayan buat ganti suasana setup. trimakasih ya</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Ardie</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>paketnya aman banget,mousepadnya bagus banget padahal murah walaupun ada miss paint dikit gpp soalnya harganya murah banget terus bahan mousepadnya tebelll</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>X***f</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Bahannya bagus, kayaknya ini lebih ke tipe speed (agak licin). Jahitan pinggirannya juga rapi. Kualitas gambarnya bagus (tidak blur), tapi warna gambarnya agak wash out (kurang pekat warnanya). Ntah ini memang warna asli designnya seperti ini atau ngga. Untuk deskmat harga under 100k udah oke 👍</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>P***r</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>bahannya lumayan buat harga segitu , juga ada sedikit luntur atau noda biru kecil😁🤏🏻</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/result/crawling_from_tokopedia.xlsx
+++ b/result/crawling_from_tokopedia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,12 +453,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>D***a</t>
+          <t>Taufik</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>cukup untuk yang mau game pakai sens rendah halus licin TPI kontrolnya masih dapat tebel</t>
+          <t>Selalu beli laptop di NVIDIA GEFORCE LAPTOP selalu aman dan laptop sampe tujuan tanpa lecet .</t>
         </is>
       </c>
       <c r="C2" t="inlineStr"/>
@@ -466,12 +466,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>a***n</t>
+          <t>J***s</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ukuran pas, material yg cakep dan seperti mousepad pada umumnya dengan harga yang terjangkau bisa dibilang.</t>
+          <t>Pelayanan terbaik. Banyak bonusnya ternyata. Terima kasih 🙏</t>
         </is>
       </c>
       <c r="C3" t="inlineStr"/>
@@ -479,12 +479,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Aripin</t>
+          <t>N***l</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>BARANG : Sesuai ekspektasi SELLER : Responsif COURIER : Tidak ada masalah</t>
+          <t>Barang sampai dengan packing aman dan mulus sudah di cek dan tes devicenya berjalan normal semoga awet dan tinggal aktifkan office 2021 home student</t>
         </is>
       </c>
       <c r="C4" t="inlineStr"/>
@@ -492,12 +492,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>D***e</t>
+          <t>D***o</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>sat set, psen kmren bsknya lgsg smpe dpn rumah. hasil gambar bagus, tidak tipis, anti slip jg ckup tebal jd ga suka geser, looks dan kualitas ckp oke. cmn di bbrp jaitan ada warna kaya luntur (koreksi klo salah) yg sy khawatir klo kringetan bkal ngrusak wrnanya. satu lg, isi paket saya ada smpah</t>
+          <t>pelayanan cepat, pengiriman tepat waktu, semoga awet, terima kasih bonusnya</t>
         </is>
       </c>
       <c r="C5" t="inlineStr"/>
@@ -505,275 +505,15 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>d****</t>
+          <t>p***z</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Mantep lah, ketebalan ok, ukuran sesuai, motif jernih,kalau buat peforma kayaknya sih ok (belum coba buat game)</t>
+          <t>bad service jadi malas pengen beli produk lainnya dari toko ini, ga bisa dibatalin padahal mau beli laptop yg lebih bagus gara gara katanya udh dikirim padahal resi cetak baru lusa sorenya hadeuh kurang akurat sekali informasinya jadi jangan mudah beli di toko ini. not recommended, mana barang bermasalah lagi kemasan cuma pake bubble tipis hadeuh gmn sih ini yg bener aja kecewa berat spek kaleng dijual harga langit</t>
         </is>
       </c>
       <c r="C6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Abie</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Barang ok, bagus. Pengiriman cepat, recommended.</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>F***e</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Kualitas pengerjaan: BAGUS Bahan: BAGUS Perakitan: Bagus Barang sampai tapi yg sampai nya warna hitam bukan yg putih 🤦‍♂️</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>M***h</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Mousepad nya sangat nyaman dipakai, bahannya halus dan cetakannya tajam. Mantap banget.. Makasih kak</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>I***a</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Bahan dan barang nya bagus sebenarnya, tapi karena pengiriman agak lama, jadi kayak ada bekas lekukannya, dan ya jujur jujuran aja ya seperti di video packingnya cuman kardus, tapi dari kualitas barang nya bagus kok minusnya cuman itu aja</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>T***h</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Kualitas bagus buat harganya, motif juga bagus. tebel juga enak buat setup</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>irsyad</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>bagus banget plisss, bahannya ga keset (licin) dan tebel jahitannya juga rapih dan warnnya juga real sama kaya di foto produk, worth it !</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>R***w</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Bahan: Bagus responsif dan tidak cacat jahitan😍 Alhamdulillah barang sampai dengan selamat dan bagus. Minusnya disaya aja masih nabung buat rakit PC, bantu do'ain ya min supaya cepat kebeli PC nya 😇🤗</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>T***c</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Quality of work: BAGUS Material: Enak buat mouse</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Ida</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>ukuran sesuai, bahan dan material baik, cukup halus.. mouse meluncur dengan lancar diatasnya..</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Rey</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Proses cepat, bahan bagus, gak licin, sesuai harga, mantap</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>R***p</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Bahan berbau tajam (jadi pertimbangan), jahitan masih kurang rapi, selain itu motif, desain dan lainnya bagus... Sesuai harga</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>L***u</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Bahan adem, tebel, bagus gk licin dan gk terlalu keset juga, oke buat mousenya. Minus nya bahan bawah nya kurang keset, jadi suka geser deskmat nya. Minus juga pinggirannya melengkung, karena emg paketnya digulung, jdi pinggirannya susah buat lurus lagi, butuh waktu. Overall oke. Murah juga sih.</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Samet</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Kualitas Dari Mousepad sangat bagus Dan tebal. gambarnya rapi Dan jelas. Sangat recommend</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>N***p</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>overall dari bahan oke dan bagus, designnya juga keren tapi yang saya kecewain adalah saat saya teliti ada noda biru disekitar warna putih. itu saja keluhan saya.</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>K***y</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Bahan: Halus dan Tebal Barangnya bagus, halus, dan licin buat mouse, mantap deh.</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>R***a</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Kualitas nya mantap dan permukaan nya halus licin, serta anti slip</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr"/>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Alice</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Lumayan nih gaes pas kena flash sale ga sampe 50rb. bahan lumayan baik, cukup rapih, tapi ya jangan bandingkan dengan yg diatas serratus ribuan ya, tapi ini bagus lah. proses cepat langsung dikitim, kurir juga sat set. lumayan buat ganti suasana setup. trimakasih ya</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr"/>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Ardie</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>paketnya aman banget,mousepadnya bagus banget padahal murah walaupun ada miss paint dikit gpp soalnya harganya murah banget terus bahan mousepadnya tebelll</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr"/>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>X***f</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>Bahannya bagus, kayaknya ini lebih ke tipe speed (agak licin). Jahitan pinggirannya juga rapi. Kualitas gambarnya bagus (tidak blur), tapi warna gambarnya agak wash out (kurang pekat warnanya). Ntah ini memang warna asli designnya seperti ini atau ngga. Untuk deskmat harga under 100k udah oke 👍</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr"/>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>P***r</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>bahannya lumayan buat harga segitu , juga ada sedikit luntur atau noda biru kecil😁🤏🏻</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
